--- a/statistics/HistoricalDistanceData/historical_distance/Q1746935-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q1746935-en.xlsx
@@ -31,12 +31,12 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Naroda Patiya: Maya Kodnani jailed for 28 years, Babu Bajrangi gets death</t>
+  </si>
+  <si>
     <t>Arjun Modhwadia on Twitter</t>
   </si>
   <si>
-    <t>Naroda Patiya: Maya Kodnani jailed for 28 years, Babu Bajrangi gets death</t>
-  </si>
-  <si>
     <t>Maya Kodnani, 'kingpin' of Naroda Patia massacre, sentenced to 28 years in jail</t>
   </si>
   <si>
@@ -49,12 +49,12 @@
     <t>Naroda Patia convict Bajrangi takes pride in his action, says felt like Rana Pratap</t>
   </si>
   <si>
+    <t>2012-08-31T11:21:46UTC</t>
+  </si>
+  <si>
     <t>2012-08-29T00:00:00UTC</t>
   </si>
   <si>
-    <t>2012-08-31T11:21:46UTC</t>
-  </si>
-  <si>
     <t>2003-08-09T00:00:00UTC</t>
   </si>
   <si>
@@ -67,10 +67,10 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://in.lifestyle.yahoo.com/naroda-patiya-maya-kodnani-jailed-28-years-babu-112146214.html</t>
+  </si>
+  <si>
     <t>https://twitter.com/arjunmodhwadia/statuses/240708733544579072</t>
-  </si>
-  <si>
-    <t>http://in.lifestyle.yahoo.com/naroda-patiya-maya-kodnani-jailed-28-years-babu-112146214.html</t>
   </si>
   <si>
     <t>http://articles.timesofindia.indiatimes.com/2012-08-31/india/33520145_1_naroda-patia-massacre-life-imprisonment-babu-bajrangi</t>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3835</v>
+        <v>3837</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -501,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
